--- a/data/trans_dic/P26-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P26-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1782664976543086</v>
+        <v>0.1810485004088913</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2417615120800426</v>
+        <v>0.2414281908156272</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1486249572176729</v>
+        <v>0.1526764318127</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0676610908936459</v>
+        <v>0.0671431323114727</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2222283103598234</v>
+        <v>0.2246360975812098</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.256958304541857</v>
+        <v>0.2595778304830065</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1821427787131163</v>
+        <v>0.1886905451829365</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07714556242456021</v>
+        <v>0.07746186744209431</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2080096358542517</v>
+        <v>0.2060546767937457</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2606488492336817</v>
+        <v>0.2615249453982336</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1760844293906943</v>
+        <v>0.1766444926291652</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07762243777476996</v>
+        <v>0.07995227887654634</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2582118019658862</v>
+        <v>0.2599798830061091</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3371322546226506</v>
+        <v>0.340992490350844</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2314868070541118</v>
+        <v>0.2324258321596788</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1232313467216744</v>
+        <v>0.1220574298277068</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.33045744233615</v>
+        <v>0.333090111025014</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3736373159308787</v>
+        <v>0.3778405034688149</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2801581881484499</v>
+        <v>0.2809416522830821</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1312590358071377</v>
+        <v>0.1297431295040347</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2713516768710877</v>
+        <v>0.2684001687887098</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3372685694833181</v>
+        <v>0.3362128648156354</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.237622663402972</v>
+        <v>0.2418865954775264</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1155616727124805</v>
+        <v>0.1180176270269534</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.2008226958338539</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08025600139208956</v>
+        <v>0.08025600139208955</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3620534177932915</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1807003295867536</v>
+        <v>0.1832402106433902</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2245744474425987</v>
+        <v>0.2220723865334027</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1604076776079638</v>
+        <v>0.1624939024370967</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05719111268527403</v>
+        <v>0.05398977317722312</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3155873289768125</v>
+        <v>0.3142616802969309</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2672265077085759</v>
+        <v>0.2686996872524937</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1870763550476401</v>
+        <v>0.1903280073582171</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09914396899562435</v>
+        <v>0.1014710325382177</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2612835101596119</v>
+        <v>0.2665166313691015</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2555276511365597</v>
+        <v>0.2577854911924879</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1870294938990206</v>
+        <v>0.1859227349544368</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08395687239901338</v>
+        <v>0.08391985160746046</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2770677296979744</v>
+        <v>0.2781771823670425</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3164719003513113</v>
+        <v>0.3137895312447675</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2471326367088042</v>
+        <v>0.2473655335224546</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1169162820641667</v>
+        <v>0.113985673784625</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4219545029966995</v>
+        <v>0.4134076908118458</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3792699800597287</v>
+        <v>0.3778343867497231</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2808491075320002</v>
+        <v>0.2867788548312807</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1591361282305472</v>
+        <v>0.1631274555069223</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3354775434586569</v>
+        <v>0.3341491675115581</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3278080477863671</v>
+        <v>0.3286065076927512</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2494186156083067</v>
+        <v>0.2474522998400324</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1241272428955152</v>
+        <v>0.1295101887740853</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.2473112641604581</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.08696124213637241</v>
+        <v>0.08696124213637239</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2396158678740497</v>
+        <v>0.2454476642717892</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2971668355734844</v>
+        <v>0.2980977531353686</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2185080665777285</v>
+        <v>0.221904857828045</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0632845105913302</v>
+        <v>0.0635530622453369</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3580282571904714</v>
+        <v>0.3590933352790656</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3818880068929967</v>
+        <v>0.370806687644968</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1519295611286881</v>
+        <v>0.1515346370820056</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05557794816598528</v>
+        <v>0.05460018688205208</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2832027331385151</v>
+        <v>0.2828123564514044</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3343360563973892</v>
+        <v>0.3374191803520317</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2124306874736777</v>
+        <v>0.2105090169189887</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06605198949358247</v>
+        <v>0.06585780569987279</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3245656993463656</v>
+        <v>0.3221244709376748</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3763035077088882</v>
+        <v>0.3790157690268599</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2983442181977359</v>
+        <v>0.3004871003230322</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1202155565333193</v>
+        <v>0.1175792644848039</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5161361516676477</v>
+        <v>0.5189643263750648</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5046111845429738</v>
+        <v>0.5026900494261738</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2951825406027511</v>
+        <v>0.2869527360474173</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1302272517923849</v>
+        <v>0.1313561726373054</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3535835633106524</v>
+        <v>0.356248618307768</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4009447960624393</v>
+        <v>0.4002056747067338</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2889844731723828</v>
+        <v>0.2845668552142081</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1121786648152372</v>
+        <v>0.11368804847855</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.252468100792856</v>
+        <v>0.2530799561681099</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3048091057522472</v>
+        <v>0.3070676941197851</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2405855057476752</v>
+        <v>0.2404825161208676</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.106846481836577</v>
+        <v>0.1053735277359701</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3780113221949715</v>
+        <v>0.3787214849182972</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3825169165620265</v>
+        <v>0.3814408089887242</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2675613120295195</v>
+        <v>0.2682436191945386</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1529452842234981</v>
+        <v>0.1557521569920784</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3070862930851966</v>
+        <v>0.3082292647429606</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3468132352955801</v>
+        <v>0.3443330815880898</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2607788255477257</v>
+        <v>0.2586558858725085</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1341648920668949</v>
+        <v>0.1351210459543969</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3044322681568205</v>
+        <v>0.3066322127875012</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3639903120274925</v>
+        <v>0.3656662530560696</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2977365898401904</v>
+        <v>0.2983029589903832</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1583867910142106</v>
+        <v>0.1602452699444287</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4552246582600437</v>
+        <v>0.4556334157943913</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4592751212845224</v>
+        <v>0.4565491501438204</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3365396838491188</v>
+        <v>0.3338317100638291</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2034005195257072</v>
+        <v>0.2023283412276421</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3514950897163007</v>
+        <v>0.3514031143454075</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3934847871289826</v>
+        <v>0.3918494638592273</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3034174714427768</v>
+        <v>0.3042635951587417</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1681566622071521</v>
+        <v>0.1706620626846422</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.2753362149648859</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1482305841804963</v>
+        <v>0.1482305841804962</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2751389539138548</v>
+        <v>0.2723800945015704</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2895057857075199</v>
+        <v>0.2876120919996079</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2067664930280559</v>
+        <v>0.2075753908860139</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1074369965501913</v>
+        <v>0.1076446720208987</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3969892471902337</v>
+        <v>0.400330708277932</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3717251469977806</v>
+        <v>0.3743229540242373</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2690472625507949</v>
+        <v>0.2692500389193294</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1301000087042883</v>
+        <v>0.1282648087358015</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3619635169010557</v>
+        <v>0.3620738585040198</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3509661115567812</v>
+        <v>0.3504599113351407</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.250019235020548</v>
+        <v>0.2509148364867428</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1289617452738618</v>
+        <v>0.1295204481171507</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3809706845407031</v>
+        <v>0.3769287839082066</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3729884406760245</v>
+        <v>0.3727734295946687</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2813128717363526</v>
+        <v>0.278067781111373</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1802823384439645</v>
+        <v>0.179304855715911</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4861953574611154</v>
+        <v>0.4903669018848938</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4451975069884724</v>
+        <v>0.448597712503864</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3379210795857018</v>
+        <v>0.3419166564630778</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1763330916856888</v>
+        <v>0.1748592561572029</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.427808627425283</v>
+        <v>0.4364547223212085</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4077120235343969</v>
+        <v>0.4090185050248803</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3010917693853727</v>
+        <v>0.3001072763066396</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1668447429357099</v>
+        <v>0.168832392354051</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3925572563269944</v>
+        <v>0.3968744459995996</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3682431865817594</v>
+        <v>0.366918442479146</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2956183889383025</v>
+        <v>0.2904087442036439</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.08169852829770367</v>
+        <v>0.0848939350181931</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3005371063427843</v>
+        <v>0.2991436137535667</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3470126108008653</v>
+        <v>0.3502741776169236</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2207712710048958</v>
+        <v>0.2229425275979364</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0896596213764608</v>
+        <v>0.09018855630405961</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3277303918513391</v>
+        <v>0.3283068001096189</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3627693621109765</v>
+        <v>0.3628136442547456</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.24668340394224</v>
+        <v>0.2439670020818804</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.09902283718055309</v>
+        <v>0.09815070462782746</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5031584096779457</v>
+        <v>0.5062094030889196</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.485968589735863</v>
+        <v>0.4878856088319042</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4083219806787656</v>
+        <v>0.4168560375043207</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2333944048998217</v>
+        <v>0.2358920628835824</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3542473982311924</v>
+        <v>0.3547763214301056</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4106525859400096</v>
+        <v>0.4087759150914638</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2775602005126668</v>
+        <v>0.2772075222723772</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1445169426147937</v>
+        <v>0.1429692040724806</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3769654463599721</v>
+        <v>0.3787713453809344</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4180549496889573</v>
+        <v>0.4176904006151133</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2949244606728788</v>
+        <v>0.2959861508429037</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1515944993578807</v>
+        <v>0.1502989334665672</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2687420397879776</v>
+        <v>0.2708214320989618</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3093278790016476</v>
+        <v>0.3099459519028089</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2359163021702778</v>
+        <v>0.236969233927687</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1002649543805742</v>
+        <v>0.100942783430891</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3530272519377846</v>
+        <v>0.3534397597004427</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3711238057273066</v>
+        <v>0.3701454132911288</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2511767921017978</v>
+        <v>0.2510452503967953</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1260022978823042</v>
+        <v>0.12538109729902</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3168476677166846</v>
+        <v>0.3168607671908786</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3459895729748095</v>
+        <v>0.3458171071818017</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2490184322277456</v>
+        <v>0.2479047196894626</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.117217898487548</v>
+        <v>0.1168449916489932</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3030476175781154</v>
+        <v>0.304252524462833</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3457098672308964</v>
+        <v>0.3453300600400914</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2660615980963295</v>
+        <v>0.2692479268987102</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1283105606196793</v>
+        <v>0.1276258920848973</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3887232539467028</v>
+        <v>0.3872582037805611</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4066355388204522</v>
+        <v>0.4036323071328585</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2826205503983639</v>
+        <v>0.2830565939442688</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1495566125849437</v>
+        <v>0.1483811142427924</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3405474820704983</v>
+        <v>0.3405484764954628</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3701223051373732</v>
+        <v>0.3706001437749751</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2700652940551596</v>
+        <v>0.2717291610602292</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1347361324492522</v>
+        <v>0.1348912902087139</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>78780</v>
+        <v>80009</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>97460</v>
+        <v>97325</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>56591</v>
+        <v>58134</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>34149</v>
+        <v>33887</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>61575</v>
+        <v>62242</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>75409</v>
+        <v>76178</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>57821</v>
+        <v>59899</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>34767</v>
+        <v>34910</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>149559</v>
+        <v>148153</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>181566</v>
+        <v>182176</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>122944</v>
+        <v>123335</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>74158</v>
+        <v>76384</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>114109</v>
+        <v>114890</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>135906</v>
+        <v>137462</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>88142</v>
+        <v>88499</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>62195</v>
+        <v>61603</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>91563</v>
+        <v>92292</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>109651</v>
+        <v>110884</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>88936</v>
+        <v>89184</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>59154</v>
+        <v>58471</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>195102</v>
+        <v>192979</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>234939</v>
+        <v>234203</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>165911</v>
+        <v>168888</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>110404</v>
+        <v>112750</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>59770</v>
+        <v>60610</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>90444</v>
+        <v>89436</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>56990</v>
+        <v>57732</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>25455</v>
+        <v>24030</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>110641</v>
+        <v>110176</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>86350</v>
+        <v>86826</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>63994</v>
+        <v>65106</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>39329</v>
+        <v>40252</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>178028</v>
+        <v>181593</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>185479</v>
+        <v>187118</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>130427</v>
+        <v>129655</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>70673</v>
+        <v>70641</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>91646</v>
+        <v>92013</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>127454</v>
+        <v>126373</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>87803</v>
+        <v>87885</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>52038</v>
+        <v>50734</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>147932</v>
+        <v>144935</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>122555</v>
+        <v>122091</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>96071</v>
+        <v>98099</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>63126</v>
+        <v>64710</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>228580</v>
+        <v>227675</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>237945</v>
+        <v>238525</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>173934</v>
+        <v>172563</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>104487</v>
+        <v>109018</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>123315</v>
+        <v>126317</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>180599</v>
+        <v>181165</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>106581</v>
+        <v>108238</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>27269</v>
+        <v>27385</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>55723</v>
+        <v>55889</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>91824</v>
+        <v>89160</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>23270</v>
+        <v>23209</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9309</v>
+        <v>9146</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>189824</v>
+        <v>189562</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>283579</v>
+        <v>286194</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>136153</v>
+        <v>134921</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>39526</v>
+        <v>39409</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>167034</v>
+        <v>165777</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>228694</v>
+        <v>230342</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>145522</v>
+        <v>146567</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>51801</v>
+        <v>50665</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>80331</v>
+        <v>80771</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>121333</v>
+        <v>120871</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>45210</v>
+        <v>43950</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>21813</v>
+        <v>22002</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>236999</v>
+        <v>238785</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>340075</v>
+        <v>339448</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>185218</v>
+        <v>182387</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>67128</v>
+        <v>68031</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>290158</v>
+        <v>290861</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>336933</v>
+        <v>339430</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>259408</v>
+        <v>259297</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>108295</v>
+        <v>106802</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>251636</v>
+        <v>252109</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>285080</v>
+        <v>284278</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>206142</v>
+        <v>206667</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>122258</v>
+        <v>124502</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>557352</v>
+        <v>559427</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>641835</v>
+        <v>637245</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>482097</v>
+        <v>478173</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>243229</v>
+        <v>244963</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>349879</v>
+        <v>352407</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>402352</v>
+        <v>404204</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>321031</v>
+        <v>321641</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>160534</v>
+        <v>162417</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>303036</v>
+        <v>303308</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>342286</v>
+        <v>340254</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>259286</v>
+        <v>257199</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>162590</v>
+        <v>161733</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>637953</v>
+        <v>637786</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>728209</v>
+        <v>725182</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>560923</v>
+        <v>562487</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>304853</v>
+        <v>309395</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>87229</v>
+        <v>86354</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>142600</v>
+        <v>141667</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>115658</v>
+        <v>116110</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>52977</v>
+        <v>53079</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>205411</v>
+        <v>207140</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>269648</v>
+        <v>271533</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>184837</v>
+        <v>184977</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>98427</v>
+        <v>97039</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>302043</v>
+        <v>302135</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>427462</v>
+        <v>426846</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>311617</v>
+        <v>312733</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>161157</v>
+        <v>161855</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>120781</v>
+        <v>119500</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>183720</v>
+        <v>183614</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>157356</v>
+        <v>155541</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>88896</v>
+        <v>88414</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>251568</v>
+        <v>253726</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>322945</v>
+        <v>325411</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>232154</v>
+        <v>234899</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>133405</v>
+        <v>132290</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>356987</v>
+        <v>364202</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>496577</v>
+        <v>498168</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>375272</v>
+        <v>374045</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>208497</v>
+        <v>210981</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>114574</v>
+        <v>115834</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>97239</v>
+        <v>96889</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>83039</v>
+        <v>81576</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>18460</v>
+        <v>19182</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>338075</v>
+        <v>336508</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>356343</v>
+        <v>359692</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>220828</v>
+        <v>223000</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>66853</v>
+        <v>67248</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>464318</v>
+        <v>465135</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>468317</v>
+        <v>468374</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>316040</v>
+        <v>312560</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>96209</v>
+        <v>95362</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>146854</v>
+        <v>147745</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>128325</v>
+        <v>128832</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>114697</v>
+        <v>117094</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>52735</v>
+        <v>53300</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>398494</v>
+        <v>399089</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>421694</v>
+        <v>419767</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>277631</v>
+        <v>277278</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>107757</v>
+        <v>106603</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>534073</v>
+        <v>536631</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>539688</v>
+        <v>539217</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>377844</v>
+        <v>379204</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>147287</v>
+        <v>146028</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>818457</v>
+        <v>824790</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1013237</v>
+        <v>1015261</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>741323</v>
+        <v>744632</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>312154</v>
+        <v>314264</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1091318</v>
+        <v>1092593</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1244975</v>
+        <v>1241693</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>821446</v>
+        <v>821016</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>417873</v>
+        <v>415813</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1944439</v>
+        <v>1944519</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>2293986</v>
+        <v>2292842</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1596881</v>
+        <v>1589740</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>753674</v>
+        <v>751276</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>922935</v>
+        <v>926605</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1132410</v>
+        <v>1131166</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>836049</v>
+        <v>846061</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>399468</v>
+        <v>397337</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1201666</v>
+        <v>1197137</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1364103</v>
+        <v>1354028</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>924280</v>
+        <v>925706</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>495989</v>
+        <v>492090</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>2089881</v>
+        <v>2089887</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>2453991</v>
+        <v>2457159</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1731849</v>
+        <v>1742519</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>866311</v>
+        <v>867309</v>
       </c>
     </row>
     <row r="32">
